--- a/Hardware/Paklijst Printplaat.xlsx
+++ b/Hardware/Paklijst Printplaat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prive\MeterPi\git\HSNetmeter\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892DA0F-0113-4350-9313-6ED1243A1A3F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463BF05B-C3DB-4C57-A77A-4DA09384C45D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330" xr2:uid="{2CF3863B-A3D7-4FF8-9FEA-1B18D342FFFF}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330" xr2:uid="{2CF3863B-A3D7-4FF8-9FEA-1B18D342FFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Onderdelen voor de HSNetmeter V1.1</t>
   </si>
@@ -75,9 +75,6 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>SV1</t>
-  </si>
-  <si>
     <t>LED Groen</t>
   </si>
   <si>
@@ -87,32 +84,14 @@
     <t>LTV817</t>
   </si>
   <si>
-    <t>40pin female header</t>
-  </si>
-  <si>
-    <t>Nog zelf bestellen:</t>
-  </si>
-  <si>
-    <t>GPS Module</t>
-  </si>
-  <si>
-    <t>L80 MTK3339</t>
-  </si>
-  <si>
-    <t>Quectel</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/GPS-MODULE-L80-Integrated-with-Patch-Antenna-MTK3339-Chip-with-Antenna-TTL-Replace-FGPMMOPA6H-PA6H-PA6C/32746329095.html?spm=a2g0s.9042311.0.0.kwlZcB</t>
-  </si>
-  <si>
-    <t>Printje</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +107,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,91 +161,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -287,19 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49674337-FA54-4209-A122-1E30836F3A62}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
@@ -706,7 +589,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -796,7 +679,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -810,7 +693,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="E17" s="2"/>
       <c r="H17" s="2"/>
@@ -820,7 +703,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="E18" s="3"/>
       <c r="H18" s="3"/>
@@ -830,7 +713,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="E19" s="4"/>
       <c r="H19" s="4"/>
@@ -840,7 +723,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
@@ -849,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -857,16 +740,16 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -874,134 +757,157 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="2:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="11"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="5" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="6"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="11"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="11"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="17"/>
+      <c r="H44" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B32:H35"/>
-    <mergeCell ref="D42:E42"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
